--- a/there_메뉴설계도.xlsx
+++ b/there_메뉴설계도.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.103.102.45536"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="HOME" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t xml:space="preserve">  메뉴설계도(메뉴정의서)</t>
   </si>
@@ -442,6 +442,33 @@
   </si>
   <si>
     <t>memberList.jsp</t>
+  </si>
+  <si>
+    <t>아이디찾기</t>
+  </si>
+  <si>
+    <t>비밀번호찾기</t>
+  </si>
+  <si>
+    <t>아이디 찾기 입력 폼 페이지 노출</t>
+  </si>
+  <si>
+    <t>비밀번호 찾기 입력 폼 페이지 노출</t>
+  </si>
+  <si>
+    <t>사용자별 개별 마이페이지 노</t>
+  </si>
+  <si>
+    <t>사용자별 개별 마이페이지</t>
+  </si>
+  <si>
+    <t>findId.jsp</t>
+  </si>
+  <si>
+    <t>findPw.jsp</t>
+  </si>
+  <si>
+    <t>mypage.jsp</t>
   </si>
 </sst>
 </file>
@@ -451,7 +478,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="10.0"/>
       <name val="Arial"/>
@@ -548,12 +575,6 @@
       <color rgb="FFFA7D00"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="Arial"/>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
       <sz val="11.0"/>
       <name val="Arial"/>
       <color rgb="FFFA7D00"/>
@@ -596,12 +617,6 @@
       <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="Arial"/>
-      <color theme="1"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -812,7 +827,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="21">
     <border/>
     <border>
       <left style="thin">
@@ -890,7 +905,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -899,7 +913,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -908,7 +921,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -917,7 +929,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -932,7 +943,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -947,7 +957,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -962,7 +971,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -971,7 +979,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -982,7 +989,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1027,31 +1033,6 @@
       <top/>
       <bottom/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1108,25 +1089,25 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1135,10 +1116,10 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1147,10 +1128,10 @@
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1159,10 +1140,10 @@
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1171,10 +1152,10 @@
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1183,10 +1164,10 @@
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1195,14 +1176,14 @@
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1259,10 +1240,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyAlignment="1"/>
@@ -1341,15 +1319,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1359,26 +1334,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1631,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Q46"/>
+  <dimension ref="A2:M46"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="E1" tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43000000" defaultRowHeight="15.750000" customHeight="1"/>
@@ -1645,6 +1614,7 @@
     <col min="6" max="6" width="60.43356977" customWidth="1" outlineLevel="0"/>
     <col min="10" max="10" width="20.00499998" customWidth="1" outlineLevel="0"/>
     <col min="11" max="11" width="23.14785658" customWidth="1" outlineLevel="0"/>
+    <col min="12" max="12" width="31.14785658" customWidth="1" outlineLevel="0"/>
     <col min="13" max="13" width="24.14785658" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
@@ -1750,8 +1720,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.500000" customHeight="1">
-      <c r="A7" s="0"/>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="38" t="s">
         <v>81</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -1780,7 +1749,7 @@
       <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:13" ht="16.500000" customHeight="1">
-      <c r="B8" s="40"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="12" t="s">
         <v>82</v>
       </c>
@@ -1838,7 +1807,7 @@
       <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:13" ht="16.500000" customHeight="1">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="40" t="s">
         <v>85</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -1867,7 +1836,7 @@
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:13" ht="16.500000" customHeight="1">
-      <c r="B11" s="42"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="12" t="s">
         <v>87</v>
       </c>
@@ -1946,45 +1915,85 @@
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:13" ht="16.500000">
-      <c r="B14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>142</v>
+      </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
+      <c r="F14" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="J14" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="16.500000">
-      <c r="B15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>143</v>
+      </c>
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="F15" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="J15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="B16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="F16" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-    </row>
-    <row r="17" spans="2:17" ht="16.500000">
+      <c r="J16" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="16.500000">
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
@@ -1997,7 +2006,7 @@
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="2:17" ht="16.500000">
+    <row r="18" spans="2:12" ht="16.500000">
       <c r="B18" s="13"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -2010,7 +2019,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="2:17" ht="16.500000">
+    <row r="19" spans="2:12" ht="16.500000">
       <c r="B19" s="13"/>
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
@@ -2023,7 +2032,7 @@
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="2:17" ht="16.500000">
+    <row r="20" spans="2:12" ht="16.500000">
       <c r="B20" s="13"/>
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
@@ -2036,7 +2045,7 @@
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
     </row>
-    <row r="21" spans="2:17" ht="16.500000">
+    <row r="21" spans="2:12" ht="16.500000">
       <c r="B21" s="13"/>
       <c r="C21" s="12"/>
       <c r="D21" s="13"/>
@@ -2049,7 +2058,7 @@
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
     </row>
-    <row r="22" spans="2:17" ht="16.500000">
+    <row r="22" spans="2:12" ht="16.500000">
       <c r="B22" s="13"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -2062,7 +2071,7 @@
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
     </row>
-    <row r="23" spans="2:17" ht="16.500000">
+    <row r="23" spans="2:12" ht="16.500000">
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -2075,7 +2084,7 @@
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
     </row>
-    <row r="24" spans="2:17" ht="16.500000">
+    <row r="24" spans="2:12" ht="16.500000">
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
@@ -2088,7 +2097,7 @@
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
     </row>
-    <row r="25" spans="2:17" ht="16.500000">
+    <row r="25" spans="2:12" ht="16.500000">
       <c r="B25" s="13"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -2101,7 +2110,7 @@
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="2:17" ht="16.500000">
+    <row r="26" spans="2:12" ht="16.500000">
       <c r="B26" s="13"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
@@ -2114,7 +2123,7 @@
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
     </row>
-    <row r="27" spans="2:17" ht="16.500000">
+    <row r="27" spans="2:12" ht="16.500000">
       <c r="B27" s="13"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -2127,7 +2136,7 @@
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
     </row>
-    <row r="28" spans="2:17">
+    <row r="28" spans="2:12">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -2140,7 +2149,7 @@
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
     </row>
-    <row r="29" spans="2:17" ht="16.500000">
+    <row r="29" spans="2:12" ht="16.500000">
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="15"/>
@@ -2153,7 +2162,7 @@
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
     </row>
-    <row r="30" spans="2:17" ht="16.500000">
+    <row r="30" spans="2:12" ht="16.500000">
       <c r="B30" s="15"/>
       <c r="C30" s="12"/>
       <c r="D30" s="15"/>
@@ -2166,7 +2175,7 @@
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
     </row>
-    <row r="31" spans="2:17" ht="16.500000">
+    <row r="31" spans="2:12" ht="16.500000">
       <c r="B31" s="15"/>
       <c r="C31" s="12"/>
       <c r="D31" s="15"/>
@@ -2179,7 +2188,7 @@
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
     </row>
-    <row r="32" spans="2:17">
+    <row r="32" spans="2:12">
       <c r="B32" s="14"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -2192,7 +2201,7 @@
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
     </row>
-    <row r="33" spans="2:17" ht="16.500000">
+    <row r="33" spans="2:12" ht="16.500000">
       <c r="B33" s="12"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -2205,7 +2214,7 @@
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
     </row>
-    <row r="34" spans="2:17" ht="16.500000">
+    <row r="34" spans="2:12" ht="16.500000">
       <c r="B34" s="12"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -2218,7 +2227,7 @@
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
     </row>
-    <row r="35" spans="2:17">
+    <row r="35" spans="2:12">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -2231,7 +2240,7 @@
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
     </row>
-    <row r="36" spans="2:17">
+    <row r="36" spans="2:12">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -2244,7 +2253,7 @@
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
     </row>
-    <row r="37" spans="2:17">
+    <row r="37" spans="2:12">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -2257,7 +2266,7 @@
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
     </row>
-    <row r="38" spans="2:17">
+    <row r="38" spans="2:12">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -2270,7 +2279,7 @@
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
     </row>
-    <row r="39" spans="2:17">
+    <row r="39" spans="2:12">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -2283,7 +2292,7 @@
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
     </row>
-    <row r="40" spans="2:17">
+    <row r="40" spans="2:12">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -2296,7 +2305,7 @@
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
     </row>
-    <row r="41" spans="2:17">
+    <row r="41" spans="2:12">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -2309,7 +2318,7 @@
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
     </row>
-    <row r="42" spans="2:17">
+    <row r="42" spans="2:12">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
@@ -2322,7 +2331,7 @@
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
     </row>
-    <row r="43" spans="2:17">
+    <row r="43" spans="2:12">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
@@ -2335,7 +2344,7 @@
       <c r="K43" s="13"/>
       <c r="L43" s="13"/>
     </row>
-    <row r="44" spans="2:17">
+    <row r="44" spans="2:12">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2348,7 +2357,7 @@
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
     </row>
-    <row r="45" spans="2:17">
+    <row r="45" spans="2:12">
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -2360,19 +2369,6 @@
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
-    </row>
-    <row r="46" spans="2:17">
-      <c r="B46" s="0"/>
-      <c r="C46" s="0"/>
-      <c r="D46" s="0"/>
-      <c r="E46" s="0"/>
-      <c r="F46" s="0"/>
-      <c r="G46" s="0"/>
-      <c r="H46" s="0"/>
-      <c r="I46" s="0"/>
-      <c r="J46" s="0"/>
-      <c r="K46" s="0"/>
-      <c r="L46" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2391,8 +2387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="E13" zoomScale="80" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43000000" defaultRowHeight="15.750000" customHeight="1"/>
@@ -2427,7 +2423,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="4"/>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="57" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -2436,19 +2432,19 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="57" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="18">
         <v>1</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="57" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="K4" s="57" t="s">
         <v>6</v>
       </c>
       <c r="L4" s="19" t="s">
@@ -2472,43 +2468,43 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="4"/>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="58" t="s">
+      <c r="J6" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="58" t="s">
+      <c r="K6" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="58" t="s">
+      <c r="L6" s="57" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.500000">
-      <c r="A7" s="32"/>
-      <c r="B7" s="31" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="30" t="s">
         <v>109</v>
       </c>
       <c r="C7" s="12"/>
@@ -2535,8 +2531,8 @@
       <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:13" ht="16.500000" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="65" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -2565,8 +2561,8 @@
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:13" ht="16.500000" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="12" t="s">
         <v>115</v>
       </c>
@@ -2593,8 +2589,8 @@
       <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:13" ht="16.500000" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="67"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="12" t="s">
         <v>83</v>
       </c>
@@ -2621,8 +2617,8 @@
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:13" ht="16.500000">
-      <c r="A11" s="32"/>
-      <c r="B11" s="41" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="40" t="s">
         <v>110</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -2651,8 +2647,8 @@
       <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:13" ht="16.500000">
-      <c r="A12" s="32"/>
-      <c r="B12" s="57"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="12" t="s">
         <v>117</v>
       </c>
@@ -2679,8 +2675,8 @@
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:13" ht="16.500000">
-      <c r="A13" s="70"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="12" t="s">
         <v>134</v>
       </c>
@@ -2709,8 +2705,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.500000">
-      <c r="A14" s="70"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="12" t="s">
         <v>135</v>
       </c>
@@ -2739,8 +2735,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.500000">
-      <c r="A15" s="0"/>
-      <c r="B15" s="40"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="12" t="s">
         <v>118</v>
       </c>
@@ -3120,19 +3115,6 @@
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
     </row>
-    <row r="42" spans="2:12">
-      <c r="B42" s="0"/>
-      <c r="C42" s="0"/>
-      <c r="D42" s="0"/>
-      <c r="E42" s="0"/>
-      <c r="F42" s="0"/>
-      <c r="G42" s="0"/>
-      <c r="H42" s="0"/>
-      <c r="I42" s="0"/>
-      <c r="J42" s="0"/>
-      <c r="K42" s="0"/>
-      <c r="L42" s="0"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:M2"/>
